--- a/data/trans_bre/P2B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 12,5</t>
+          <t>-1,88; 12,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 16,1</t>
+          <t>-2,13; 16,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 18,4</t>
+          <t>1,08; 19,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 9,63</t>
+          <t>-2,5; 9,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 66,57</t>
+          <t>-8,32; 61,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 35,19</t>
+          <t>-3,92; 35,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 50,26</t>
+          <t>1,72; 52,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 62,03</t>
+          <t>-12,25; 62,32</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 15,41</t>
+          <t>1,26; 15,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 21,55</t>
+          <t>4,1; 21,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 18,06</t>
+          <t>1,67; 17,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 10,22</t>
+          <t>-2,74; 10,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 88,05</t>
+          <t>4,38; 81,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 49,48</t>
+          <t>7,55; 47,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 43,29</t>
+          <t>3,45; 43,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 62,54</t>
+          <t>-12,5; 59,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 15,44</t>
+          <t>-1,87; 14,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 10,32</t>
+          <t>-5,94; 10,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 10,72</t>
+          <t>-8,16; 10,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 4,16</t>
+          <t>-10,26; 4,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 73,81</t>
+          <t>-7,67; 70,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 21,75</t>
+          <t>-11,16; 21,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 26,92</t>
+          <t>-18,2; 26,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 16,19</t>
+          <t>-34,71; 19,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 8,71</t>
+          <t>-0,03; 8,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 11,36</t>
+          <t>1,46; 12,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 19,31</t>
+          <t>8,97; 19,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 46,34</t>
+          <t>-3,76; 48,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 42,97</t>
+          <t>-0,21; 42,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 21,58</t>
+          <t>2,56; 23,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 51,51</t>
+          <t>21,46; 53,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 199,34</t>
+          <t>-14,21; 208,41</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 9,72</t>
+          <t>-3,19; 10,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 11,42</t>
+          <t>-1,37; 10,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,48</t>
+          <t>-3,38; 8,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 11,33</t>
+          <t>-3,56; 11,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 54,47</t>
+          <t>-12,3; 55,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 23,88</t>
+          <t>-2,25; 22,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 20,78</t>
+          <t>-7,16; 22,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 61,4</t>
+          <t>-14,17; 60,83</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 14,19</t>
+          <t>0,51; 14,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 6,51</t>
+          <t>-11,58; 5,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 8,79</t>
+          <t>-7,69; 9,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 27,04</t>
+          <t>3,49; 26,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 121,31</t>
+          <t>2,13; 122,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 16,55</t>
+          <t>-21,52; 14,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 28,85</t>
+          <t>-16,99; 31,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,11; 304,67</t>
+          <t>9,67; 290,08</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,79</t>
+          <t>1,98; 6,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,9</t>
+          <t>-0,37; 4,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,22</t>
+          <t>2,61; 8,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 24,66</t>
+          <t>2,74; 25,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,0; 33,23</t>
+          <t>8,65; 32,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 9,71</t>
+          <t>-0,78; 9,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 20,72</t>
+          <t>5,99; 19,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,7; 114,9</t>
+          <t>12,13; 121,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
